--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\says\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/says_dtu_dk/Documents/Dokumenter/drosh/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B82C96-A626-4CC1-AA5E-86A8CE58BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9B82C96-A626-4CC1-AA5E-86A8CE58BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27A10CA-7F3A-450E-AF68-22B5E9FF4F06}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,9 +1554,6 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
       <c r="C27" s="2">
         <v>85.482524819740306</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/says_dtu_dk/Documents/Dokumenter/drosh/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9B82C96-A626-4CC1-AA5E-86A8CE58BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27A10CA-7F3A-450E-AF68-22B5E9FF4F06}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{E9B82C96-A626-4CC1-AA5E-86A8CE58BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE46319-4EA6-4BCB-9E60-F52CC611B25B}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="OPTIMAL DIET" sheetId="1" r:id="rId1"/>
+    <sheet name="DALY" sheetId="3" r:id="rId2"/>
+    <sheet name="SLACK" sheetId="2" r:id="rId3"/>
+    <sheet name="FOODGROUP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>Food group</t>
   </si>
@@ -211,13 +225,166 @@
   </si>
   <si>
     <t>CF 0%, DALY 0%</t>
+  </si>
+  <si>
+    <t>Nutrient</t>
+  </si>
+  <si>
+    <t>Target Value</t>
+  </si>
+  <si>
+    <t>Protein, upper, g</t>
+  </si>
+  <si>
+    <t>Added sugar, g</t>
+  </si>
+  <si>
+    <t>Fat, upper, g</t>
+  </si>
+  <si>
+    <t>Saturated fat, total, g</t>
+  </si>
+  <si>
+    <t>Sodium, mg</t>
+  </si>
+  <si>
+    <t>Alcohol, g</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Energy, kJ</t>
+  </si>
+  <si>
+    <t>Protein, lower, g</t>
+  </si>
+  <si>
+    <t>Carbohydrates, total, g</t>
+  </si>
+  <si>
+    <t>Dietary fiber, g</t>
+  </si>
+  <si>
+    <t>Fat, lower, g</t>
+  </si>
+  <si>
+    <t>n-3 fatty acids, total, g</t>
+  </si>
+  <si>
+    <t>A-vitamin, RE mg</t>
+  </si>
+  <si>
+    <t>E-vitamin, alfa-TE</t>
+  </si>
+  <si>
+    <t>B1-vitamin, mg</t>
+  </si>
+  <si>
+    <t>B2-vitamin, riboflavin, mg</t>
+  </si>
+  <si>
+    <t>Niacin, NE</t>
+  </si>
+  <si>
+    <t>B6-vitamin, mg</t>
+  </si>
+  <si>
+    <t>Folate, mg</t>
+  </si>
+  <si>
+    <t>B12-vitamin, mg</t>
+  </si>
+  <si>
+    <t>C-vitamin, mg</t>
+  </si>
+  <si>
+    <t>Potassium, mg</t>
+  </si>
+  <si>
+    <t>Calcium, mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium, mg </t>
+  </si>
+  <si>
+    <t>Phosphor, mg</t>
+  </si>
+  <si>
+    <t>Iron, mg</t>
+  </si>
+  <si>
+    <t>Zinc, mg</t>
+  </si>
+  <si>
+    <t>Iodine, mg</t>
+  </si>
+  <si>
+    <t>Selenium, mg</t>
+  </si>
+  <si>
+    <t>DISEASES</t>
+  </si>
+  <si>
+    <t>IHD</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>T2D</t>
+  </si>
+  <si>
+    <t>STROKE</t>
+  </si>
+  <si>
+    <t>HYPERTENSION</t>
+  </si>
+  <si>
+    <t>Foodgroup</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Whole Grain</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Legume</t>
+  </si>
+  <si>
+    <t>Miscellanous</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +400,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,14 +497,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,13 +831,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="6" width="15.44140625" customWidth="1"/>
@@ -563,52 +850,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>64.321413816940705</v>
+      <c r="C2">
+        <v>64.3</v>
       </c>
       <c r="D2">
         <v>107.1</v>
@@ -639,14 +926,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>34.372232809257099</v>
+      <c r="C3">
+        <v>34.4</v>
       </c>
       <c r="D3">
         <v>41.6</v>
@@ -677,17 +964,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>51.358251208611499</v>
+      <c r="C4">
+        <v>51.4</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>61.1</v>
       </c>
       <c r="E4">
         <v>72.8</v>
@@ -715,14 +1002,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>6.4087622198192697</v>
+      <c r="C5">
+        <v>6.4</v>
       </c>
       <c r="D5">
         <v>6.8</v>
@@ -753,14 +1040,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>57.818050362241401</v>
+      <c r="C6">
+        <v>57.8</v>
       </c>
       <c r="D6">
         <v>46.7</v>
@@ -791,14 +1078,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>24.802455439947</v>
+      <c r="C7">
+        <v>24.8</v>
       </c>
       <c r="D7">
         <v>32.200000000000003</v>
@@ -829,14 +1116,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>14.526164076229501</v>
+      <c r="C8">
+        <v>14.5</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -867,14 +1154,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>8.1154200054606598</v>
+      <c r="C9">
+        <v>8.1</v>
       </c>
       <c r="D9">
         <v>8.8000000000000007</v>
@@ -905,14 +1192,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>6.5471853642538402</v>
+      <c r="C10">
+        <v>6.5</v>
       </c>
       <c r="D10">
         <v>6.8</v>
@@ -943,14 +1230,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>6.5218337187559197</v>
+      <c r="C11">
+        <v>6.5</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -981,14 +1268,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
-        <v>38.697356948454797</v>
+      <c r="C12">
+        <v>38.700000000000003</v>
       </c>
       <c r="D12">
         <v>10.9</v>
@@ -1019,14 +1306,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
-        <v>30.655169894695302</v>
+      <c r="C13">
+        <v>30.7</v>
       </c>
       <c r="D13">
         <v>30.4</v>
@@ -1057,14 +1344,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
-        <v>16.670000000000002</v>
+      <c r="C14">
+        <v>16.7</v>
       </c>
       <c r="D14">
         <v>12.4</v>
@@ -1095,17 +1382,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
-        <v>110.01</v>
+      <c r="C15">
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="E15">
         <v>116.1</v>
@@ -1133,14 +1420,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
-        <v>162.81288340884001</v>
+      <c r="C16">
+        <v>162.80000000000001</v>
       </c>
       <c r="D16">
         <v>182.4</v>
@@ -1171,14 +1458,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>16.788157323069498</v>
+      <c r="C17">
+        <v>16.8</v>
       </c>
       <c r="D17">
         <v>21.7</v>
@@ -1209,14 +1496,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
-        <v>9.0588273817910707</v>
+      <c r="C18">
+        <v>9.1</v>
       </c>
       <c r="D18">
         <v>9.9</v>
@@ -1247,14 +1534,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
-        <v>9.9945117744391592</v>
+      <c r="C19">
+        <v>10</v>
       </c>
       <c r="D19">
         <v>12.2</v>
@@ -1285,14 +1572,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
-        <v>15.252710949005801</v>
+      <c r="C20">
+        <v>15.3</v>
       </c>
       <c r="D20">
         <v>16.100000000000001</v>
@@ -1323,14 +1610,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="2">
-        <v>19.334413916527499</v>
+      <c r="C21">
+        <v>19.3</v>
       </c>
       <c r="D21">
         <v>20.3</v>
@@ -1361,14 +1648,14 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="2">
-        <v>3.2012227351686802</v>
+      <c r="C22">
+        <v>3.2</v>
       </c>
       <c r="D22">
         <v>3.3</v>
@@ -1399,14 +1686,14 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
-        <v>59.218909483021697</v>
+      <c r="C23">
+        <v>59.2</v>
       </c>
       <c r="D23">
         <v>60.8</v>
@@ -1437,14 +1724,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" s="2">
-        <v>66.985641304224899</v>
+      <c r="C24">
+        <v>67</v>
       </c>
       <c r="D24">
         <v>83.3</v>
@@ -1475,14 +1762,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="2">
-        <v>15.219228949945</v>
+      <c r="C25">
+        <v>15.2</v>
       </c>
       <c r="D25">
         <v>15.8</v>
@@ -1513,14 +1800,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="2">
-        <v>63.602132549142802</v>
+      <c r="C26">
+        <v>63.6</v>
       </c>
       <c r="D26">
         <v>73.3</v>
@@ -1551,11 +1838,14 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2">
-        <v>85.482524819740306</v>
+      <c r="A27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>7.3</v>
       </c>
       <c r="D27">
         <v>7.6</v>
@@ -1586,14 +1876,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
+      <c r="A28" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>7.3025495086385401</v>
+      <c r="C28">
+        <v>8.9</v>
       </c>
       <c r="D28">
         <v>9.5</v>
@@ -1624,14 +1914,14 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
+      <c r="A29" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
-        <v>8.9415255822374604</v>
+      <c r="C29">
+        <v>4.2</v>
       </c>
       <c r="D29">
         <v>4.3</v>
@@ -1662,14 +1952,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
+      <c r="A30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
-        <v>4.1817265846880902</v>
+      <c r="C30">
+        <v>55.9</v>
       </c>
       <c r="D30">
         <v>62.6</v>
@@ -1700,14 +1990,14 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
+      <c r="A31" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
-        <v>55.937169704039</v>
+      <c r="C31">
+        <v>55.6</v>
       </c>
       <c r="D31">
         <v>60.4</v>
@@ -1738,14 +2028,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
+      <c r="A32" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="2">
-        <v>55.622844225301897</v>
+      <c r="C32">
+        <v>35.6</v>
       </c>
       <c r="D32">
         <v>40.1</v>
@@ -1776,14 +2066,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
+      <c r="A33" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="2">
-        <v>35.629315662176502</v>
+      <c r="C33">
+        <v>58</v>
       </c>
       <c r="D33">
         <v>63.2</v>
@@ -1814,14 +2104,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
+      <c r="A34" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2">
-        <v>58.020883717686502</v>
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>11.4</v>
       </c>
       <c r="D34">
         <v>11</v>
@@ -1852,14 +2142,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>35</v>
+      <c r="A35" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
-        <v>11.400679876231701</v>
+      <c r="C35">
+        <v>27.5</v>
       </c>
       <c r="D35">
         <v>16.8</v>
@@ -1890,14 +2180,14 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
+      <c r="A36" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36" s="2">
-        <v>27.531375268926102</v>
+      <c r="C36">
+        <v>49.2</v>
       </c>
       <c r="D36">
         <v>50.6</v>
@@ -1928,14 +2218,14 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
+      <c r="A37" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
-      <c r="C37" s="2">
-        <v>49.247142663936103</v>
+      <c r="C37">
+        <v>50.5</v>
       </c>
       <c r="D37">
         <v>47.7</v>
@@ -1966,14 +2256,14 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
+      <c r="A38" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2">
-        <v>50.515039627682</v>
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>6.1</v>
       </c>
       <c r="D38">
         <v>6.5</v>
@@ -2004,14 +2294,14 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
+      <c r="A39" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
-        <v>6.0570597618851698</v>
+      <c r="C39">
+        <v>0.4</v>
       </c>
       <c r="D39">
         <v>0.4</v>
@@ -2042,14 +2332,14 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
+      <c r="A40" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.44160353402333702</v>
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1.2</v>
       </c>
       <c r="D40">
         <v>1.3</v>
@@ -2080,14 +2370,14 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
+      <c r="A41" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3.06</v>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>241.4</v>
       </c>
       <c r="D41">
         <v>271.7</v>
@@ -2118,11 +2408,14 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2">
-        <v>241.442485855727</v>
+      <c r="A42" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>766</v>
       </c>
       <c r="D42">
         <v>788</v>
@@ -2153,11 +2446,14 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="2">
-        <v>765.99487832590796</v>
+      <c r="A43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
       </c>
       <c r="D43">
         <v>28.4</v>
@@ -2188,11 +2484,14 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2">
-        <v>24.9672535305872</v>
+      <c r="A44" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>12.2</v>
       </c>
       <c r="D44">
         <v>5.4</v>
@@ -2223,11 +2522,14 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2">
-        <v>12.2472415498424</v>
+      <c r="A45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>28</v>
       </c>
       <c r="D45">
         <v>20.5</v>
@@ -2258,11 +2560,14 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="2">
-        <v>28.041632868658802</v>
+      <c r="A46" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
       </c>
       <c r="D46">
         <v>32.5</v>
@@ -2293,11 +2598,14 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2">
-        <v>29.0020243924439</v>
+      <c r="A47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>85.5</v>
       </c>
       <c r="D47">
         <v>106.2</v>
@@ -2328,11 +2636,14 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="2">
-        <v>1.20017322435697</v>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1.2</v>
       </c>
       <c r="D48">
         <v>1.2</v>
@@ -2363,11 +2674,14 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="2">
-        <v>190.08326728098899</v>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>190.1</v>
       </c>
       <c r="D49">
         <v>197</v>
@@ -2398,11 +2712,14 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="2">
-        <v>21.821271885153401</v>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>21.8</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2433,14 +2750,17 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="2">
-        <v>1221.0150937165399</v>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1221</v>
       </c>
       <c r="D51">
-        <v>1171.4000000000001</v>
+        <v>1171.5</v>
       </c>
       <c r="E51">
         <v>1121.8</v>
@@ -2465,6 +2785,1840 @@
       </c>
       <c r="L51">
         <v>1399.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446A1D5-6CFF-4DC3-8754-3A70B5879EB9}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1">
+        <v>570.94000000000005</v>
+      </c>
+      <c r="C2" s="10">
+        <v>487.58747478687258</v>
+      </c>
+      <c r="D2" s="10">
+        <v>509.01</v>
+      </c>
+      <c r="E2" s="10">
+        <v>576.27</v>
+      </c>
+      <c r="F2" s="10">
+        <v>487.59800000000001</v>
+      </c>
+      <c r="G2" s="10">
+        <v>509</v>
+      </c>
+      <c r="H2" s="10">
+        <v>474.67899999999997</v>
+      </c>
+      <c r="I2" s="10">
+        <v>429.32</v>
+      </c>
+      <c r="J2" s="10">
+        <v>422.113</v>
+      </c>
+      <c r="K2" s="10">
+        <v>359.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1">
+        <v>106.70399999999999</v>
+      </c>
+      <c r="C3" s="10">
+        <v>82.045327190000634</v>
+      </c>
+      <c r="D3" s="10">
+        <v>58.28</v>
+      </c>
+      <c r="E3" s="10">
+        <v>27.87</v>
+      </c>
+      <c r="F3" s="10">
+        <v>82.045000000000002</v>
+      </c>
+      <c r="G3" s="10">
+        <v>58.28</v>
+      </c>
+      <c r="H3" s="10">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="I3" s="10">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="J3" s="10">
+        <v>45.582999999999998</v>
+      </c>
+      <c r="K3" s="10">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1">
+        <v>158.99600000000001</v>
+      </c>
+      <c r="C4" s="10">
+        <v>95.812753306097676</v>
+      </c>
+      <c r="D4" s="10">
+        <v>62.06</v>
+      </c>
+      <c r="E4" s="10">
+        <v>22.02</v>
+      </c>
+      <c r="F4" s="10">
+        <v>95.825000000000003</v>
+      </c>
+      <c r="G4" s="10">
+        <v>62.07</v>
+      </c>
+      <c r="H4" s="10">
+        <v>14.87</v>
+      </c>
+      <c r="I4" s="10">
+        <v>91.44</v>
+      </c>
+      <c r="J4" s="10">
+        <v>50.899000000000001</v>
+      </c>
+      <c r="K4" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1">
+        <v>149.91</v>
+      </c>
+      <c r="C5" s="10">
+        <v>86.015791019965164</v>
+      </c>
+      <c r="D5" s="10">
+        <v>123.67</v>
+      </c>
+      <c r="E5" s="10">
+        <v>260.57</v>
+      </c>
+      <c r="F5" s="10">
+        <v>86.031000000000006</v>
+      </c>
+      <c r="G5" s="10">
+        <v>123.67</v>
+      </c>
+      <c r="H5" s="10">
+        <v>176.46899999999999</v>
+      </c>
+      <c r="I5" s="10">
+        <v>22.44</v>
+      </c>
+      <c r="J5" s="10">
+        <v>23.11</v>
+      </c>
+      <c r="K5" s="10">
+        <v>87.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32D5E09-EA4B-4FD9-A1DB-86A29DB0F279}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5">
+        <v>117.6470588</v>
+      </c>
+      <c r="C2" s="5">
+        <v>89.732447996207583</v>
+      </c>
+      <c r="D2" s="5">
+        <v>89.485311556429735</v>
+      </c>
+      <c r="E2" s="5">
+        <v>83.103000982215491</v>
+      </c>
+      <c r="F2" s="5">
+        <v>76.255237919499848</v>
+      </c>
+      <c r="G2" s="5">
+        <v>89.487370089112304</v>
+      </c>
+      <c r="H2" s="5">
+        <v>83.102490098872295</v>
+      </c>
+      <c r="I2" s="5">
+        <v>76.110023800977189</v>
+      </c>
+      <c r="J2" s="5">
+        <v>88.99512485464507</v>
+      </c>
+      <c r="K2" s="5">
+        <v>81.54096803443359</v>
+      </c>
+      <c r="L2" s="5">
+        <v>76.102060436201612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5">
+        <v>58.823529409999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>50.379537890842109</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45.808442493015598</v>
+      </c>
+      <c r="E3" s="5">
+        <v>54.066900368702491</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45.22229643843616</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45.806028472353887</v>
+      </c>
+      <c r="H3" s="5">
+        <v>54.063956870721192</v>
+      </c>
+      <c r="I3" s="5">
+        <v>41.101505476940552</v>
+      </c>
+      <c r="J3" s="5">
+        <v>47.049171276188588</v>
+      </c>
+      <c r="K3" s="5">
+        <v>55.531219968859062</v>
+      </c>
+      <c r="L3" s="5">
+        <v>35.552883854992793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5">
+        <v>108.1081081</v>
+      </c>
+      <c r="C4" s="5">
+        <v>97.421589426431979</v>
+      </c>
+      <c r="D4" s="5">
+        <v>78.33364545253437</v>
+      </c>
+      <c r="E4" s="5">
+        <v>77.967389979798142</v>
+      </c>
+      <c r="F4" s="5">
+        <v>77.173688555685573</v>
+      </c>
+      <c r="G4" s="5">
+        <v>78.333863188661184</v>
+      </c>
+      <c r="H4" s="5">
+        <v>77.969789150016453</v>
+      </c>
+      <c r="I4" s="5">
+        <v>77.813543538734478</v>
+      </c>
+      <c r="J4" s="5">
+        <v>78.509553062920133</v>
+      </c>
+      <c r="K4" s="5">
+        <v>79.502694315385298</v>
+      </c>
+      <c r="L4" s="5">
+        <v>78.793483477982974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5">
+        <v>27.027027029999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>37.543020133731183</v>
+      </c>
+      <c r="D5" s="5">
+        <v>27.027023318406648</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27.027025383343162</v>
+      </c>
+      <c r="F5" s="5">
+        <v>23.827278887996911</v>
+      </c>
+      <c r="G5" s="5">
+        <v>27.027025776144839</v>
+      </c>
+      <c r="H5" s="5">
+        <v>27.027026437714738</v>
+      </c>
+      <c r="I5" s="5">
+        <v>22.868867735986768</v>
+      </c>
+      <c r="J5" s="5">
+        <v>27.027018623315939</v>
+      </c>
+      <c r="K5" s="5">
+        <v>27.0270173146193</v>
+      </c>
+      <c r="L5" s="5">
+        <v>22.183901814757881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2400</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3769.8340421443281</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2399.999483570959</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2399.9998550778159</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2399.999973686799</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2399.9998277500008</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2399.999949934162</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2399.9998951955081</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2399.998866749173</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2399.9988760510828</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2399.999985499298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>17.14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>14.89888005623537</v>
+      </c>
+      <c r="D7" s="5">
+        <v>16.761483681232459</v>
+      </c>
+      <c r="E7" s="5">
+        <v>12.03822230253493</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.3217070587575182E-7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>16.762258521525052</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12.038377331975351</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.0638623403223109E-6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>17.138568487984688</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10.74400297392924</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.4582530306051361E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4373.4391689333697</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4127.2779375130876</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3279.7499422303399</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2186.4999977524822</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4127.4632754324384</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3279.7499789252288</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2186.4999915647631</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4191.6956875925353</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3279.7497130586398</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2186.499998713326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10017.992142541039</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9999.9999999999964</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9999.9999999999964</v>
+      </c>
+      <c r="L9" s="2">
+        <v>9999.9999999999891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7">
+        <v>58.823529409999999</v>
+      </c>
+      <c r="C10" s="7">
+        <v>89.732447996207583</v>
+      </c>
+      <c r="D10" s="7">
+        <v>89.485311556429735</v>
+      </c>
+      <c r="E10" s="7">
+        <v>83.103000982215491</v>
+      </c>
+      <c r="F10" s="7">
+        <v>76.255237919499848</v>
+      </c>
+      <c r="G10" s="7">
+        <v>89.487370089112304</v>
+      </c>
+      <c r="H10" s="7">
+        <v>83.102490098872295</v>
+      </c>
+      <c r="I10" s="7">
+        <v>76.110023800977189</v>
+      </c>
+      <c r="J10" s="7">
+        <v>88.99512485464507</v>
+      </c>
+      <c r="K10" s="7">
+        <v>81.54096803443359</v>
+      </c>
+      <c r="L10" s="7">
+        <v>76.102060436201612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>251.65931539587649</v>
+      </c>
+      <c r="D11" s="7">
+        <v>286.25345301468758</v>
+      </c>
+      <c r="E11" s="7">
+        <v>301.46557327233393</v>
+      </c>
+      <c r="F11" s="7">
+        <v>328.71068233235877</v>
+      </c>
+      <c r="G11" s="7">
+        <v>286.24956537065998</v>
+      </c>
+      <c r="H11" s="7">
+        <v>301.4606154407856</v>
+      </c>
+      <c r="I11" s="7">
+        <v>326.919028719349</v>
+      </c>
+      <c r="J11" s="7">
+        <v>285.75754863819009</v>
+      </c>
+      <c r="K11" s="7">
+        <v>301.84161624055753</v>
+      </c>
+      <c r="L11" s="7">
+        <v>324.17927625625549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="7">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>23.730342352259459</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30.000003654412829</v>
+      </c>
+      <c r="E12" s="7">
+        <v>30.000001841477491</v>
+      </c>
+      <c r="F12" s="7">
+        <v>33.848986544155863</v>
+      </c>
+      <c r="G12" s="7">
+        <v>30.000001243882569</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30.000000663687661</v>
+      </c>
+      <c r="I12" s="7">
+        <v>35.272142785160902</v>
+      </c>
+      <c r="J12" s="7">
+        <v>30.00001431839453</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30.25152001148097</v>
+      </c>
+      <c r="L12" s="7">
+        <v>36.858936591455908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="7">
+        <v>67.567567569999994</v>
+      </c>
+      <c r="C13" s="7">
+        <v>97.421589426431979</v>
+      </c>
+      <c r="D13" s="7">
+        <v>78.33364545253437</v>
+      </c>
+      <c r="E13" s="7">
+        <v>77.967389979798142</v>
+      </c>
+      <c r="F13" s="7">
+        <v>77.173688555685573</v>
+      </c>
+      <c r="G13" s="7">
+        <v>78.333863188661184</v>
+      </c>
+      <c r="H13" s="7">
+        <v>77.969789150016453</v>
+      </c>
+      <c r="I13" s="7">
+        <v>77.813543538734478</v>
+      </c>
+      <c r="J13" s="7">
+        <v>78.509553062920133</v>
+      </c>
+      <c r="K13" s="7">
+        <v>79.502694315385298</v>
+      </c>
+      <c r="L13" s="7">
+        <v>78.793483477982974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2.7027027029999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.779038810971088</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2.702703698152094</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.732908324006496</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3.4991292597744348</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2.7027030446454878</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2.733103654317703</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3.5214407872069771</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2.70270539650009</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2.8847678511324508</v>
+      </c>
+      <c r="L14" s="7">
+        <v>3.5368971533014539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="7">
+        <v>800</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1424.616096289933</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1306.351388971204</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1365.414483475809</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1271.279869713409</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1306.3984325361239</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1365.4469115012839</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1221.5805255728039</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1343.403237783092</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1404.6649337675699</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1157.9154865520311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10.258458365754031</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9.7749615918016417</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10.16654127692593</v>
+      </c>
+      <c r="F16" s="7">
+        <v>11.98332979213111</v>
+      </c>
+      <c r="G16" s="7">
+        <v>9.7748455217825843</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10.166993000002689</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13.05990785502312</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10.102745696091249</v>
+      </c>
+      <c r="K16" s="7">
+        <v>10.94316437878444</v>
+      </c>
+      <c r="L16" s="7">
+        <v>14.143384808004891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.607557842722616</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.7332249485118381</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.7405154869464989</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.405913131607647</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.733238533842181</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.740539164881727</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.409710372993449</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1.724514883294167</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.703671483852264</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1.4158463362227369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.882908086057971</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.8607341330632949</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.8097507971992299</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.8116924500190921</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.8607189571443239</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.809788272615285</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1.7448292129461911</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1.871830297429887</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.7932016920663381</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1.672696580533892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7">
+        <v>37.794046085404553</v>
+      </c>
+      <c r="D19" s="7">
+        <v>38.388467287536798</v>
+      </c>
+      <c r="E19" s="7">
+        <v>32.942381908243057</v>
+      </c>
+      <c r="F19" s="7">
+        <v>24.907333224089179</v>
+      </c>
+      <c r="G19" s="7">
+        <v>38.389343673896128</v>
+      </c>
+      <c r="H19" s="7">
+        <v>32.942702293307029</v>
+      </c>
+      <c r="I19" s="7">
+        <v>24.690446986999412</v>
+      </c>
+      <c r="J19" s="7">
+        <v>38.475760746011581</v>
+      </c>
+      <c r="K19" s="7">
+        <v>32.033990309456513</v>
+      </c>
+      <c r="L19" s="7">
+        <v>24.53290215320747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.886257518492976</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.0663398273166451</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.90079613908569</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.717024371886319</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2.0663538405331519</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.900819271042792</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.7068144165204491</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2.1120794419310971</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.9408602242701949</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1.6958107327238161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="7">
+        <v>450</v>
+      </c>
+      <c r="C21" s="7">
+        <v>425.11005041379792</v>
+      </c>
+      <c r="D21" s="7">
+        <v>453.75644506289763</v>
+      </c>
+      <c r="E21" s="7">
+        <v>450.00008145997049</v>
+      </c>
+      <c r="F21" s="7">
+        <v>460.45044676208971</v>
+      </c>
+      <c r="G21" s="7">
+        <v>453.75431043675371</v>
+      </c>
+      <c r="H21" s="7">
+        <v>450.00002438303659</v>
+      </c>
+      <c r="I21" s="7">
+        <v>479.24593600053947</v>
+      </c>
+      <c r="J21" s="7">
+        <v>470.24744611266232</v>
+      </c>
+      <c r="K21" s="7">
+        <v>467.89641041794232</v>
+      </c>
+      <c r="L21" s="7">
+        <v>498.3738458099395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6.89339305388292</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6.8866572099598589</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.5701840262690423</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6.8045771090385703</v>
+      </c>
+      <c r="G22" s="7">
+        <v>6.8868354629660127</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6.5703113857596902</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6.3872248107918992</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6.9522963815951222</v>
+      </c>
+      <c r="K22" s="7">
+        <v>6.705312637389226</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5.9085209927346822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7">
+        <v>80</v>
+      </c>
+      <c r="C23" s="7">
+        <v>137.0239497807087</v>
+      </c>
+      <c r="D23" s="7">
+        <v>149.69324308062329</v>
+      </c>
+      <c r="E23" s="7">
+        <v>142.22970594059791</v>
+      </c>
+      <c r="F23" s="7">
+        <v>127.9023242474329</v>
+      </c>
+      <c r="G23" s="7">
+        <v>149.68930832903379</v>
+      </c>
+      <c r="H23" s="7">
+        <v>142.23090142474851</v>
+      </c>
+      <c r="I23" s="7">
+        <v>135.25348871006241</v>
+      </c>
+      <c r="J23" s="7">
+        <v>162.6623868173312</v>
+      </c>
+      <c r="K23" s="7">
+        <v>158.43832378502509</v>
+      </c>
+      <c r="L23" s="7">
+        <v>142.09849498930501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3500</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3719.10874348781</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4058.1602440089368</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3737.3194360845032</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3500.000011632314</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4058.1158390203859</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3737.4061995531001</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3500.0000935510802</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4154.6259146881184</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3780.9321005110492</v>
+      </c>
+      <c r="L24" s="7">
+        <v>3500.0000240528261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1148.602027108798</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1000.005052742757</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1000.0001655670191</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1000.00000666255</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1000.001151891416</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1000.000060274675</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1000.0000196591189</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1009.12103435339</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1000.000672876747</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1000.000002811243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7">
+        <v>320</v>
+      </c>
+      <c r="C26" s="7">
+        <v>387.52211002071368</v>
+      </c>
+      <c r="D26" s="7">
+        <v>421.0264704015035</v>
+      </c>
+      <c r="E26" s="7">
+        <v>398.46836911108841</v>
+      </c>
+      <c r="F26" s="7">
+        <v>385.15708566053581</v>
+      </c>
+      <c r="G26" s="7">
+        <v>421.02538195370113</v>
+      </c>
+      <c r="H26" s="7">
+        <v>398.47251096775591</v>
+      </c>
+      <c r="I26" s="7">
+        <v>391.89735836364332</v>
+      </c>
+      <c r="J26" s="7">
+        <v>423.5206060673147</v>
+      </c>
+      <c r="K26" s="7">
+        <v>395.58772476027963</v>
+      </c>
+      <c r="L26" s="7">
+        <v>399.36630992732779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="7">
+        <v>800</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1579.724991632416</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1568.103272092681</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1517.2071644127179</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1535.1733262051921</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1568.103636226791</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1517.20065929728</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1519.693903433292</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1562.126569397708</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1492.720596002044</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1506.05201175143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11.304494475756179</v>
+      </c>
+      <c r="D28" s="7">
+        <v>12.658326626975979</v>
+      </c>
+      <c r="E28" s="7">
+        <v>12.02892147862917</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12.536462123026221</v>
+      </c>
+      <c r="G28" s="7">
+        <v>12.65856139852821</v>
+      </c>
+      <c r="H28" s="7">
+        <v>12.02884616062836</v>
+      </c>
+      <c r="I28" s="7">
+        <v>12.378786231149</v>
+      </c>
+      <c r="J28" s="7">
+        <v>12.617685419209151</v>
+      </c>
+      <c r="K28" s="7">
+        <v>11.876392600775249</v>
+      </c>
+      <c r="L28" s="7">
+        <v>12.21261351669299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="7">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7">
+        <v>11.94480208714824</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11.903703347701731</v>
+      </c>
+      <c r="E29" s="7">
+        <v>10.31885748912133</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9.8552752658668226</v>
+      </c>
+      <c r="G29" s="7">
+        <v>11.904221421565451</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10.318751528512459</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9.769992916326137</v>
+      </c>
+      <c r="J29" s="7">
+        <v>11.79861046766815</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10.062447888417781</v>
+      </c>
+      <c r="L29" s="7">
+        <v>9.6914879930052127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="7">
+        <v>170</v>
+      </c>
+      <c r="C30" s="7">
+        <v>198.19246562328951</v>
+      </c>
+      <c r="D30" s="7">
+        <v>170.00024228068239</v>
+      </c>
+      <c r="E30" s="7">
+        <v>173.40315993111511</v>
+      </c>
+      <c r="F30" s="7">
+        <v>198.15766525805239</v>
+      </c>
+      <c r="G30" s="7">
+        <v>170.00008941777079</v>
+      </c>
+      <c r="H30" s="7">
+        <v>173.40875324596891</v>
+      </c>
+      <c r="I30" s="7">
+        <v>195.74261130899211</v>
+      </c>
+      <c r="J30" s="7">
+        <v>170.00026489842051</v>
+      </c>
+      <c r="K30" s="7">
+        <v>173.1877634239041</v>
+      </c>
+      <c r="L30" s="7">
+        <v>193.5478613680578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="7">
+        <v>57</v>
+      </c>
+      <c r="C31" s="7">
+        <v>54.518977789796381</v>
+      </c>
+      <c r="D31" s="7">
+        <v>57.000011911551262</v>
+      </c>
+      <c r="E31" s="7">
+        <v>57.000001275044227</v>
+      </c>
+      <c r="F31" s="7">
+        <v>57.000000111892348</v>
+      </c>
+      <c r="G31" s="7">
+        <v>57.000003946669104</v>
+      </c>
+      <c r="H31" s="7">
+        <v>57.000000454740302</v>
+      </c>
+      <c r="I31" s="7">
+        <v>57.000000584766383</v>
+      </c>
+      <c r="J31" s="7">
+        <v>57.000033582829587</v>
+      </c>
+      <c r="K31" s="7">
+        <v>57.000007740593759</v>
+      </c>
+      <c r="L31" s="7">
+        <v>57.000000080623821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3878A4-2D09-4F0E-BF42-1FE8558B9927}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>268.3</v>
+      </c>
+      <c r="C2">
+        <v>329.2</v>
+      </c>
+      <c r="D2">
+        <v>361.8</v>
+      </c>
+      <c r="E2">
+        <v>437.4</v>
+      </c>
+      <c r="F2">
+        <v>329.2</v>
+      </c>
+      <c r="G2">
+        <v>361.8</v>
+      </c>
+      <c r="H2">
+        <v>428.5</v>
+      </c>
+      <c r="I2">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="J2">
+        <v>347.2</v>
+      </c>
+      <c r="K2">
+        <v>418.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3">
+        <v>365.4</v>
+      </c>
+      <c r="C3">
+        <v>348.1</v>
+      </c>
+      <c r="D3">
+        <v>362.2</v>
+      </c>
+      <c r="E3">
+        <v>452.2</v>
+      </c>
+      <c r="F3">
+        <v>348.1</v>
+      </c>
+      <c r="G3">
+        <v>362.3</v>
+      </c>
+      <c r="H3">
+        <v>419.4</v>
+      </c>
+      <c r="I3">
+        <v>349.3</v>
+      </c>
+      <c r="J3">
+        <v>361.3</v>
+      </c>
+      <c r="K3">
+        <v>386.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C4">
+        <v>43.8</v>
+      </c>
+      <c r="D4">
+        <v>45.3</v>
+      </c>
+      <c r="E4">
+        <v>54.4</v>
+      </c>
+      <c r="F4">
+        <v>43.8</v>
+      </c>
+      <c r="G4">
+        <v>45.3</v>
+      </c>
+      <c r="H4">
+        <v>55.4</v>
+      </c>
+      <c r="I4">
+        <v>45.7</v>
+      </c>
+      <c r="J4">
+        <v>49.8</v>
+      </c>
+      <c r="K4">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>242.8</v>
+      </c>
+      <c r="C5">
+        <v>273</v>
+      </c>
+      <c r="D5">
+        <v>249.7</v>
+      </c>
+      <c r="E5">
+        <v>147.5</v>
+      </c>
+      <c r="F5">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>249.7</v>
+      </c>
+      <c r="H5">
+        <v>197.5</v>
+      </c>
+      <c r="I5">
+        <v>306.2</v>
+      </c>
+      <c r="J5">
+        <v>302.7</v>
+      </c>
+      <c r="K5">
+        <v>245.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>225.6</v>
+      </c>
+      <c r="C6">
+        <v>247.7</v>
+      </c>
+      <c r="D6">
+        <v>230.2</v>
+      </c>
+      <c r="E6">
+        <v>179.4</v>
+      </c>
+      <c r="F6">
+        <v>247.7</v>
+      </c>
+      <c r="G6">
+        <v>230.2</v>
+      </c>
+      <c r="H6">
+        <v>226.7</v>
+      </c>
+      <c r="I6">
+        <v>282.2</v>
+      </c>
+      <c r="J6">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="K6">
+        <v>274.60000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="C7">
+        <v>126.2</v>
+      </c>
+      <c r="D7">
+        <v>78.2</v>
+      </c>
+      <c r="E7">
+        <v>8.6</v>
+      </c>
+      <c r="F7">
+        <v>126.2</v>
+      </c>
+      <c r="G7">
+        <v>78.2</v>
+      </c>
+      <c r="H7">
+        <v>5.4</v>
+      </c>
+      <c r="I7">
+        <v>125</v>
+      </c>
+      <c r="J7">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>6.5</v>
+      </c>
+      <c r="C8">
+        <v>6.9</v>
+      </c>
+      <c r="D8">
+        <v>7.2</v>
+      </c>
+      <c r="E8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F8">
+        <v>6.9</v>
+      </c>
+      <c r="G8">
+        <v>7.2</v>
+      </c>
+      <c r="H8">
+        <v>12.1</v>
+      </c>
+      <c r="I8">
+        <v>7.9</v>
+      </c>
+      <c r="J8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K8">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9">
+        <v>1.3</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+      <c r="F9">
+        <v>1.3</v>
+      </c>
+      <c r="G9">
+        <v>1.3</v>
+      </c>
+      <c r="H9">
+        <v>1.4</v>
+      </c>
+      <c r="I9">
+        <v>1.3</v>
+      </c>
+      <c r="J9">
+        <v>1.3</v>
+      </c>
+      <c r="K9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>2621.3000000000002</v>
+      </c>
+      <c r="C10">
+        <v>2622.2</v>
+      </c>
+      <c r="D10">
+        <v>2213.9</v>
+      </c>
+      <c r="E10">
+        <v>1301.5999999999999</v>
+      </c>
+      <c r="F10">
+        <v>2622.3</v>
+      </c>
+      <c r="G10">
+        <v>2214</v>
+      </c>
+      <c r="H10">
+        <v>1466.5</v>
+      </c>
+      <c r="I10">
+        <v>2626.8</v>
+      </c>
+      <c r="J10">
+        <v>2129.1999999999998</v>
+      </c>
+      <c r="K10">
+        <v>1645.9</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/says_dtu_dk/Documents/Dokumenter/drosh/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{E9B82C96-A626-4CC1-AA5E-86A8CE58BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC79F5E-A796-4327-94C1-3ACE8B0BD772}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{E9B82C96-A626-4CC1-AA5E-86A8CE58BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2A3BAB-19C4-42FF-AF1F-848103EDDAFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,10 +640,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,7 +908,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1642,7 @@
         <v>121</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>16.8</v>
@@ -1690,7 +1686,7 @@
         <v>121</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>9.1</v>
@@ -1734,7 +1730,7 @@
         <v>121</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>10</v>
